--- a/reports/Transacciones_Reporte_Completo.xlsx
+++ b/reports/Transacciones_Reporte_Completo.xlsx
@@ -503,7 +503,7 @@
         <v>314286</v>
       </c>
       <c r="D2" t="n">
-        <v>44593</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         <v>407130</v>
       </c>
       <c r="D3" t="n">
-        <v>64239</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>254633</v>
       </c>
       <c r="D4" t="n">
-        <v>31437</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         <v>132938</v>
       </c>
       <c r="D5" t="n">
-        <v>18144</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
